--- a/cambus/routes/CamBus_20141202_final.xlsx
+++ b/cambus/routes/CamBus_20141202_final.xlsx
@@ -8,18 +8,12 @@
     <sheet name="Time" sheetId="1" r:id="rId4"/>
     <sheet name="Terminal" sheetId="2" r:id="rId5"/>
     <sheet name="CityRoutes" sheetId="3" r:id="rId6"/>
-    <sheet name="City" sheetId="4" r:id="rId7"/>
-    <sheet name="Company" sheetId="5" r:id="rId8"/>
-    <sheet name="Type" sheetId="6" r:id="rId9"/>
-    <sheet name="Line" sheetId="7" r:id="rId10"/>
-    <sheet name="Bus" sheetId="8" r:id="rId11"/>
-    <sheet name="티켓판매량" sheetId="9" r:id="rId12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="640">
   <si>
     <t>LineBus No</t>
   </si>
@@ -1949,99 +1943,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nan Ching Intersection </t>
-  </si>
-  <si>
-    <t>City No</t>
-  </si>
-  <si>
-    <t>preference</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Poipet border</t>
-  </si>
-  <si>
-    <t>Vientiane</t>
-  </si>
-  <si>
-    <t>Company No</t>
-  </si>
-  <si>
-    <t>Type No</t>
-  </si>
-  <si>
-    <t>Line No</t>
-  </si>
-  <si>
-    <t>Distance</t>
-  </si>
-  <si>
-    <t>Duration Time</t>
-  </si>
-  <si>
-    <t>Native Price</t>
-  </si>
-  <si>
-    <t>Foreigner Price</t>
-  </si>
-  <si>
-    <t>Visa</t>
-  </si>
-  <si>
-    <t>D/N</t>
-  </si>
-  <si>
-    <t>Last Updated</t>
-  </si>
-  <si>
-    <t>Abroad</t>
-  </si>
-  <si>
-    <t>Domestic</t>
-  </si>
-  <si>
-    <t>Snoul</t>
-  </si>
-  <si>
-    <t>Memut</t>
-  </si>
-  <si>
-    <t>Giant ibis 티켓(1일)</t>
-  </si>
-  <si>
-    <t>Giant ibis 티켓(1개월)</t>
-  </si>
-  <si>
-    <t>금호삼코일일티켓</t>
-  </si>
-  <si>
-    <t>일일총수입</t>
-  </si>
-  <si>
-    <t>금호삼코1개월판매티켓</t>
-  </si>
-  <si>
-    <t>1개월판매금액</t>
-  </si>
-  <si>
-    <t>Puhung</t>
-  </si>
-  <si>
-    <t>일판매티켓</t>
-  </si>
-  <si>
-    <t>1개월판매량</t>
-  </si>
-  <si>
-    <t>Capital Tour 총 티켓수</t>
-  </si>
-  <si>
-    <t>Capital Tour 월 티켓수</t>
   </si>
 </sst>
 </file>
@@ -2306,7 +2207,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2459,57 +2360,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -40904,8909 +40754,4 @@
     <oddFooter>&amp;L&amp;"Apple SD 산돌고딕 Neo 일반체,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="16.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="6.625" style="51" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="51" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="51" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="51" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="51" customWidth="1"/>
-    <col min="6" max="256" width="6.625" style="51" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="3">
-        <v>640</v>
-      </c>
-      <c r="B1" t="s" s="3">
-        <v>193</v>
-      </c>
-      <c r="C1" t="s" s="3">
-        <v>641</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="3">
-        <v>76</v>
-      </c>
-      <c r="C5" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="3">
-        <v>130</v>
-      </c>
-      <c r="C7" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="C8" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s" s="3">
-        <v>643</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s" s="3">
-        <v>98</v>
-      </c>
-      <c r="C10" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="3">
-        <v>137</v>
-      </c>
-      <c r="C11" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s" s="3">
-        <v>158</v>
-      </c>
-      <c r="C12" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s" s="3">
-        <v>138</v>
-      </c>
-      <c r="C14" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s" s="3">
-        <v>104</v>
-      </c>
-      <c r="C15" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s" s="3">
-        <v>118</v>
-      </c>
-      <c r="C16" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s" s="3">
-        <v>190</v>
-      </c>
-      <c r="C17" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s" s="3">
-        <v>108</v>
-      </c>
-      <c r="C18" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s" s="3">
-        <v>109</v>
-      </c>
-      <c r="C19" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s" s="3">
-        <v>140</v>
-      </c>
-      <c r="C20" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" ht="18" customHeight="1">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s" s="3">
-        <v>643</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s" s="3">
-        <v>644</v>
-      </c>
-      <c r="C23" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" ht="18" customHeight="1">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s" s="3">
-        <v>151</v>
-      </c>
-      <c r="C24" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" ht="18" customHeight="1">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s" s="3">
-        <v>152</v>
-      </c>
-      <c r="C25" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" ht="18" customHeight="1">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s" s="3">
-        <v>153</v>
-      </c>
-      <c r="C26" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" ht="18" customHeight="1">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C27" t="s" s="3">
-        <v>643</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" ht="18" customHeight="1">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C28" t="s" s="3">
-        <v>643</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" ht="18" customHeight="1">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s" s="3">
-        <v>175</v>
-      </c>
-      <c r="C29" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" ht="18" customHeight="1">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s" s="3">
-        <v>176</v>
-      </c>
-      <c r="C30" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" ht="18" customHeight="1">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s" s="3">
-        <v>177</v>
-      </c>
-      <c r="C31" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" ht="18" customHeight="1">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s" s="3">
-        <v>141</v>
-      </c>
-      <c r="C32" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" ht="18" customHeight="1">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s" s="3">
-        <v>178</v>
-      </c>
-      <c r="C33" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" ht="18" customHeight="1">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s" s="3">
-        <v>645</v>
-      </c>
-      <c r="C34" t="s" s="3">
-        <v>642</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Apple SD 산돌고딕 Neo 일반체,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="16.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="9.375" style="52" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="52" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="52" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="52" customWidth="1"/>
-    <col min="6" max="256" width="6.625" style="52" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="3">
-        <v>646</v>
-      </c>
-      <c r="B1" t="s" s="3">
-        <v>3</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="3">
-        <v>110</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>142</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="3">
-        <v>82</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="3">
-        <v>159</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s" s="3">
-        <v>88</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s" s="3">
-        <v>162</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s" s="3">
-        <v>164</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s" s="3">
-        <v>145</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s" s="3">
-        <v>127</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s" s="3">
-        <v>94</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s" s="3">
-        <v>168</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s" s="3">
-        <v>133</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" ht="18" customHeight="1">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s" s="3">
-        <v>90</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Apple SD 산돌고딕 Neo 일반체,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="16.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="6.625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="53" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="53" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="53" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="53" customWidth="1"/>
-    <col min="6" max="256" width="6.625" style="53" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="3">
-        <v>647</v>
-      </c>
-      <c r="B1" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="3">
-        <v>120</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Apple SD 산돌고딕 Neo 일반체,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="16.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="6.625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="54" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="54" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="54" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="54" customWidth="1"/>
-    <col min="6" max="256" width="6.625" style="54" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="3">
-        <v>648</v>
-      </c>
-      <c r="B1" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="3">
-        <v>649</v>
-      </c>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3">
-        <v>359</v>
-      </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3">
-        <v>331</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3">
-        <v>353</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="C8" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3">
-        <v>290</v>
-      </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D9" s="3">
-        <v>554</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="D10" s="3">
-        <v>470</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="3">
-        <v>98</v>
-      </c>
-      <c r="C11" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3">
-        <v>124</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="C12" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3">
-        <v>148</v>
-      </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s" s="3">
-        <v>104</v>
-      </c>
-      <c r="C13" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D13" s="3">
-        <v>271</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s" s="3">
-        <v>104</v>
-      </c>
-      <c r="C14" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="D14" s="3">
-        <v>219</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s" s="3">
-        <v>108</v>
-      </c>
-      <c r="C15" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3">
-        <v>315</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s" s="3">
-        <v>109</v>
-      </c>
-      <c r="C16" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3">
-        <v>521</v>
-      </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D17" s="3">
-        <v>666</v>
-      </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="D18" s="3">
-        <v>359</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="D19" s="3">
-        <v>291</v>
-      </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="D20" s="3">
-        <v>353</v>
-      </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" ht="18" customHeight="1">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s" s="3">
-        <v>130</v>
-      </c>
-      <c r="D21" s="3">
-        <v>139</v>
-      </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="D23" s="3">
-        <v>291</v>
-      </c>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" ht="18" customHeight="1">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s" s="3">
-        <v>98</v>
-      </c>
-      <c r="D24" s="3">
-        <v>124</v>
-      </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" ht="18" customHeight="1">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s" s="3">
-        <v>137</v>
-      </c>
-      <c r="D25" s="3">
-        <v>124</v>
-      </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" ht="18" customHeight="1">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C26" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="D26" s="3">
-        <v>148</v>
-      </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" ht="18" customHeight="1">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C27" t="s" s="3">
-        <v>138</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" ht="18" customHeight="1">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C28" t="s" s="3">
-        <v>104</v>
-      </c>
-      <c r="D28" s="3">
-        <v>271</v>
-      </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" ht="18" customHeight="1">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s" s="3">
-        <v>108</v>
-      </c>
-      <c r="D29" s="3">
-        <v>315</v>
-      </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" ht="18" customHeight="1">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C30" t="s" s="3">
-        <v>109</v>
-      </c>
-      <c r="D30" s="3">
-        <v>521</v>
-      </c>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" ht="18" customHeight="1">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C31" t="s" s="3">
-        <v>140</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" ht="18" customHeight="1">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C32" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D32" s="3">
-        <v>414</v>
-      </c>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" ht="18" customHeight="1">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C33" t="s" s="3">
-        <v>151</v>
-      </c>
-      <c r="D33" s="3">
-        <v>294</v>
-      </c>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" ht="18" customHeight="1">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C34" t="s" s="3">
-        <v>152</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" ht="18" customHeight="1">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C35" t="s" s="3">
-        <v>153</v>
-      </c>
-      <c r="D35" s="3">
-        <v>588</v>
-      </c>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" ht="18" customHeight="1">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C36" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D36" s="3">
-        <v>314</v>
-      </c>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" ht="18" customHeight="1">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C37" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="D37" s="3">
-        <v>230</v>
-      </c>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" ht="18" customHeight="1">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C38" t="s" s="3">
-        <v>175</v>
-      </c>
-      <c r="D38" s="3">
-        <v>117</v>
-      </c>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" ht="18" customHeight="1">
-      <c r="A39" s="3">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C39" t="s" s="3">
-        <v>176</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" ht="18" customHeight="1">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C40" t="s" s="3">
-        <v>177</v>
-      </c>
-      <c r="D40" s="3">
-        <v>455</v>
-      </c>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" ht="18" customHeight="1">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C41" t="s" s="3">
-        <v>141</v>
-      </c>
-      <c r="D41" s="3">
-        <v>359</v>
-      </c>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" ht="18" customHeight="1">
-      <c r="A42" s="3">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C42" t="s" s="3">
-        <v>178</v>
-      </c>
-      <c r="D42" s="3">
-        <v>331</v>
-      </c>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" ht="18" customHeight="1">
-      <c r="A43" s="3">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C43" t="s" s="3">
-        <v>645</v>
-      </c>
-      <c r="D43" s="3">
-        <v>591</v>
-      </c>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" ht="18" customHeight="1">
-      <c r="A44" s="3">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C44" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" ht="18" customHeight="1">
-      <c r="A45" s="3">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C45" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D45" s="3">
-        <v>414</v>
-      </c>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" ht="18" customHeight="1">
-      <c r="A46" s="3">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s" s="3">
-        <v>151</v>
-      </c>
-      <c r="C46" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D46" s="3">
-        <v>294</v>
-      </c>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" ht="18" customHeight="1">
-      <c r="A47" s="3">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s" s="3">
-        <v>153</v>
-      </c>
-      <c r="C47" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D47" s="3">
-        <v>588</v>
-      </c>
-      <c r="E47" s="8"/>
-    </row>
-    <row r="48" ht="18" customHeight="1">
-      <c r="A48" s="3">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C48" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D48" s="3">
-        <v>403</v>
-      </c>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" ht="18" customHeight="1">
-      <c r="A49" s="3">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C49" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" ht="18" customHeight="1">
-      <c r="A50" s="3">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C50" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0</v>
-      </c>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" ht="18" customHeight="1">
-      <c r="A51" s="3">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C51" t="s" s="3">
-        <v>138</v>
-      </c>
-      <c r="D51" s="3">
-        <v>380</v>
-      </c>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" ht="18" customHeight="1">
-      <c r="A52" s="3">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C52" t="s" s="3">
-        <v>140</v>
-      </c>
-      <c r="D52" s="3">
-        <v>405</v>
-      </c>
-      <c r="E52" s="8"/>
-    </row>
-    <row r="53" ht="18" customHeight="1">
-      <c r="A53" s="3">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C53" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D53" s="3">
-        <v>314</v>
-      </c>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54" ht="18" customHeight="1">
-      <c r="A54" s="3">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C54" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D54" s="3">
-        <v>151</v>
-      </c>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" ht="18" customHeight="1">
-      <c r="A55" s="3">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C55" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="D55" s="3">
-        <v>0</v>
-      </c>
-      <c r="E55" s="8"/>
-    </row>
-    <row r="56" ht="18" customHeight="1">
-      <c r="A56" s="3">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C56" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D56" s="3">
-        <v>666</v>
-      </c>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57" ht="18" customHeight="1">
-      <c r="A57" s="3">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C57" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="D57" s="3">
-        <v>470</v>
-      </c>
-      <c r="E57" s="8"/>
-    </row>
-    <row r="58" ht="18" customHeight="1">
-      <c r="A58" s="3">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C58" t="s" s="3">
-        <v>138</v>
-      </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" ht="18" customHeight="1">
-      <c r="A59" s="3">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C59" t="s" s="3">
-        <v>104</v>
-      </c>
-      <c r="D59" s="3">
-        <v>219</v>
-      </c>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60" ht="18" customHeight="1">
-      <c r="A60" s="3">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C60" t="s" s="3">
-        <v>190</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="8"/>
-    </row>
-    <row r="61" ht="18" customHeight="1">
-      <c r="A61" s="3">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C61" t="s" s="3">
-        <v>140</v>
-      </c>
-      <c r="D61" s="3">
-        <v>578</v>
-      </c>
-      <c r="E61" s="8"/>
-    </row>
-    <row r="62" ht="18" customHeight="1">
-      <c r="A62" s="3">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C62" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D62" s="3">
-        <v>230</v>
-      </c>
-      <c r="E62" s="8"/>
-    </row>
-    <row r="63" ht="18" customHeight="1">
-      <c r="A63" s="3">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C63" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D63" s="3">
-        <v>544</v>
-      </c>
-      <c r="E63" s="8"/>
-    </row>
-    <row r="64" ht="18" customHeight="1">
-      <c r="A64" s="3">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s" s="3">
-        <v>175</v>
-      </c>
-      <c r="C64" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D64" s="3">
-        <v>117</v>
-      </c>
-      <c r="E64" s="8"/>
-    </row>
-    <row r="65" ht="18" customHeight="1">
-      <c r="A65" s="3">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s" s="3">
-        <v>176</v>
-      </c>
-      <c r="C65" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0</v>
-      </c>
-      <c r="E65" s="8"/>
-    </row>
-    <row r="66" ht="18" customHeight="1">
-      <c r="A66" s="3">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s" s="3">
-        <v>177</v>
-      </c>
-      <c r="C66" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D66" s="3">
-        <v>455</v>
-      </c>
-      <c r="E66" s="8"/>
-    </row>
-    <row r="67" ht="18" customHeight="1">
-      <c r="A67" s="3">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s" s="3">
-        <v>141</v>
-      </c>
-      <c r="C67" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D67" s="3">
-        <v>299</v>
-      </c>
-      <c r="E67" s="8"/>
-    </row>
-    <row r="68" ht="18" customHeight="1">
-      <c r="A68" s="3">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s" s="3">
-        <v>141</v>
-      </c>
-      <c r="C68" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D68" s="3">
-        <v>359</v>
-      </c>
-      <c r="E68" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Apple SD 산돌고딕 Neo 일반체,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K196"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="16.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="8.5" style="55" customWidth="1"/>
-    <col min="2" max="2" width="14" style="55" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="55" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="55" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="55" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="55" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="55" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="55" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="55" customWidth="1"/>
-    <col min="10" max="10" width="6.625" style="55" customWidth="1"/>
-    <col min="11" max="11" width="9.25" style="55" customWidth="1"/>
-    <col min="12" max="256" width="6.625" style="55" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="3">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="3">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="3">
-        <v>650</v>
-      </c>
-      <c r="G1" t="s" s="3">
-        <v>651</v>
-      </c>
-      <c r="H1" t="s" s="3">
-        <v>652</v>
-      </c>
-      <c r="I1" t="s" s="3">
-        <v>653</v>
-      </c>
-      <c r="J1" t="s" s="3">
-        <v>654</v>
-      </c>
-      <c r="K1" t="s" s="3">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3">
-        <v>11</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K2" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G3" s="11">
-        <v>5.75</v>
-      </c>
-      <c r="H3" s="11">
-        <v>5.75</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K3" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="F4" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G4" s="3">
-        <v>8</v>
-      </c>
-      <c r="H4" s="3">
-        <v>8</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K4" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="F5" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G5" s="3">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3">
-        <v>10</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K5" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="H6" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K6" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E7" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G7" s="3">
-        <v>4.25</v>
-      </c>
-      <c r="H7" s="3">
-        <v>4.25</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K7" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="E8" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G8" s="3">
-        <v>12</v>
-      </c>
-      <c r="H8" s="3">
-        <v>12</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K8" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F9" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G9" s="11">
-        <v>5.5</v>
-      </c>
-      <c r="H9" s="11">
-        <v>5.5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K9" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="F10" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3">
-        <v>8</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K10" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="F11" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G11" s="3">
-        <v>10</v>
-      </c>
-      <c r="H11" s="3">
-        <v>10</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K11" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D12" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K12" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="C13" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F13" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G13" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="H13" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K13" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E14" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F14" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>8.75</v>
-      </c>
-      <c r="H14" s="3">
-        <v>8.75</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K14" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="C15" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F15" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>10</v>
-      </c>
-      <c r="H15" s="3">
-        <v>10</v>
-      </c>
-      <c r="I15" s="3">
-        <v>25</v>
-      </c>
-      <c r="J15" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K15" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="E16" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F16" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G16" s="3">
-        <v>18</v>
-      </c>
-      <c r="H16" s="3">
-        <v>18</v>
-      </c>
-      <c r="I16" s="3">
-        <v>25</v>
-      </c>
-      <c r="J16" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K16" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="C17" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s" s="3">
-        <v>82</v>
-      </c>
-      <c r="E17" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F17" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>8</v>
-      </c>
-      <c r="H17" s="3">
-        <v>8</v>
-      </c>
-      <c r="I17" s="3">
-        <v>25</v>
-      </c>
-      <c r="J17" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K17" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="C18" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="E18" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F18" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>10</v>
-      </c>
-      <c r="H18" s="3">
-        <v>10</v>
-      </c>
-      <c r="I18" s="3">
-        <v>25</v>
-      </c>
-      <c r="J18" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K18" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s" s="3">
-        <v>88</v>
-      </c>
-      <c r="E19" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F19" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G19" s="3">
-        <v>9</v>
-      </c>
-      <c r="H19" s="3">
-        <v>9</v>
-      </c>
-      <c r="I19" s="3">
-        <v>25</v>
-      </c>
-      <c r="J19" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K19" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="C20" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F20" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>13</v>
-      </c>
-      <c r="H20" s="3">
-        <v>14</v>
-      </c>
-      <c r="I20" s="3">
-        <v>25</v>
-      </c>
-      <c r="J20" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K20" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="21" ht="18" customHeight="1">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="E21" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="F21" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="G21" s="2">
-        <v>11</v>
-      </c>
-      <c r="H21" s="2">
-        <v>11</v>
-      </c>
-      <c r="I21" s="2">
-        <v>25</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="K21" s="57">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="26"/>
-      <c r="B22" t="s" s="15">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s" s="15">
-        <v>90</v>
-      </c>
-      <c r="E22" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="F22" s="15">
-        <v>6.5</v>
-      </c>
-      <c r="G22" s="15">
-        <v>10</v>
-      </c>
-      <c r="H22" s="15">
-        <v>10</v>
-      </c>
-      <c r="I22" s="16"/>
-      <c r="J22" t="s" s="15">
-        <v>656</v>
-      </c>
-      <c r="K22" s="58">
-        <v>41954</v>
-      </c>
-    </row>
-    <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="12">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s" s="15">
-        <v>152</v>
-      </c>
-      <c r="C23" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s" s="15">
-        <v>21</v>
-      </c>
-      <c r="E23" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="15">
-        <v>5.5</v>
-      </c>
-      <c r="H23" s="15">
-        <v>5.5</v>
-      </c>
-      <c r="I23" s="15">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s" s="15">
-        <v>657</v>
-      </c>
-      <c r="K23" s="58">
-        <v>41932</v>
-      </c>
-    </row>
-    <row r="24" ht="18" customHeight="1">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s" s="9">
-        <v>75</v>
-      </c>
-      <c r="C24" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="D24" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="E24" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="F24" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="G24" s="59">
-        <v>11</v>
-      </c>
-      <c r="H24" s="59">
-        <v>11</v>
-      </c>
-      <c r="I24" s="9">
-        <v>25</v>
-      </c>
-      <c r="J24" t="s" s="9">
-        <v>656</v>
-      </c>
-      <c r="K24" s="60">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="25" ht="18" customHeight="1">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="C25" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D25" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="E25" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F25" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="G25" s="3">
-        <v>22</v>
-      </c>
-      <c r="H25" s="3">
-        <v>26</v>
-      </c>
-      <c r="I25" s="3">
-        <v>25</v>
-      </c>
-      <c r="J25" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K25" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="26" ht="18" customHeight="1">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="C26" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="D26" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="E26" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F26" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>23</v>
-      </c>
-      <c r="H26" s="3">
-        <v>26</v>
-      </c>
-      <c r="I26" s="3">
-        <v>25</v>
-      </c>
-      <c r="J26" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K26" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="27" ht="18" customHeight="1">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s" s="3">
-        <v>98</v>
-      </c>
-      <c r="C27" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D27" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E27" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F27" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>4</v>
-      </c>
-      <c r="H27" s="3">
-        <v>4</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K27" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="28" ht="18" customHeight="1">
-      <c r="A28" s="3">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="C28" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D28" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="E28" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F28" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G28" s="3">
-        <v>8</v>
-      </c>
-      <c r="H28" s="3">
-        <v>8</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K28" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="29" ht="18" customHeight="1">
-      <c r="A29" s="3">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D29" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E29" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F29" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G29" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="H29" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K29" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="30" ht="18" customHeight="1">
-      <c r="A30" s="3">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="C30" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D30" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E30" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F30" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G30" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="H30" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K30" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="31" ht="18" customHeight="1">
-      <c r="A31" s="3">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s" s="3">
-        <v>104</v>
-      </c>
-      <c r="C31" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D31" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E31" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F31" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G31" s="11">
-        <v>5</v>
-      </c>
-      <c r="H31" s="11">
-        <v>5</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K31" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="32" ht="18" customHeight="1">
-      <c r="A32" s="3">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s" s="3">
-        <v>104</v>
-      </c>
-      <c r="C32" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D32" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E32" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="F32" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>13</v>
-      </c>
-      <c r="H32" s="3">
-        <v>13</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K32" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="33" ht="18" customHeight="1">
-      <c r="A33" s="3">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s" s="3">
-        <v>104</v>
-      </c>
-      <c r="C33" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D33" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E33" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F33" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>9</v>
-      </c>
-      <c r="H33" s="3">
-        <v>9</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K33" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="34" ht="18" customHeight="1">
-      <c r="A34" s="3">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s" s="3">
-        <v>104</v>
-      </c>
-      <c r="C34" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="D34" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E34" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F34" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G34" s="3">
-        <v>9</v>
-      </c>
-      <c r="H34" s="3">
-        <v>9</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K34" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="35" ht="18" customHeight="1">
-      <c r="A35" s="8"/>
-      <c r="B35" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D35" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="E35" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="F35" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="G35" s="61">
-        <v>5.75</v>
-      </c>
-      <c r="H35" s="61">
-        <v>5.75</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="K35" s="57">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="36" ht="18" customHeight="1">
-      <c r="A36" s="26"/>
-      <c r="B36" t="s" s="15">
-        <v>658</v>
-      </c>
-      <c r="C36" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="D36" t="s" s="15">
-        <v>21</v>
-      </c>
-      <c r="E36" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="15">
-        <v>6.5</v>
-      </c>
-      <c r="H36" s="15">
-        <v>6.5</v>
-      </c>
-      <c r="I36" s="15">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s" s="15">
-        <v>657</v>
-      </c>
-      <c r="K36" s="58">
-        <v>41932</v>
-      </c>
-    </row>
-    <row r="37" ht="18" customHeight="1">
-      <c r="A37" s="26"/>
-      <c r="B37" t="s" s="15">
-        <v>659</v>
-      </c>
-      <c r="C37" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="D37" t="s" s="15">
-        <v>21</v>
-      </c>
-      <c r="E37" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="15">
-        <v>5.75</v>
-      </c>
-      <c r="H37" s="15">
-        <v>5.75</v>
-      </c>
-      <c r="I37" s="15">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s" s="15">
-        <v>657</v>
-      </c>
-      <c r="K37" s="58">
-        <v>41932</v>
-      </c>
-    </row>
-    <row r="38" ht="18" customHeight="1">
-      <c r="A38" s="26"/>
-      <c r="B38" t="s" s="15">
-        <v>175</v>
-      </c>
-      <c r="C38" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="D38" t="s" s="15">
-        <v>21</v>
-      </c>
-      <c r="E38" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="15">
-        <v>5.5</v>
-      </c>
-      <c r="H38" s="15">
-        <v>5.5</v>
-      </c>
-      <c r="I38" s="15">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s" s="15">
-        <v>657</v>
-      </c>
-      <c r="K38" s="58">
-        <v>41932</v>
-      </c>
-    </row>
-    <row r="39" ht="18" customHeight="1">
-      <c r="A39" s="12">
-        <v>33</v>
-      </c>
-      <c r="B39" t="s" s="15">
-        <v>106</v>
-      </c>
-      <c r="C39" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="D39" t="s" s="15">
-        <v>21</v>
-      </c>
-      <c r="E39" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="15">
-        <v>5.5</v>
-      </c>
-      <c r="H39" s="15">
-        <v>5.5</v>
-      </c>
-      <c r="I39" s="15">
-        <v>0</v>
-      </c>
-      <c r="J39" t="s" s="15">
-        <v>657</v>
-      </c>
-      <c r="K39" s="58">
-        <v>41932</v>
-      </c>
-    </row>
-    <row r="40" ht="18" customHeight="1">
-      <c r="A40" s="3">
-        <v>34</v>
-      </c>
-      <c r="B40" t="s" s="9">
-        <v>109</v>
-      </c>
-      <c r="C40" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="D40" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="E40" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="F40" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="G40" s="9">
-        <v>8.75</v>
-      </c>
-      <c r="H40" s="9">
-        <v>8.75</v>
-      </c>
-      <c r="I40" s="9">
-        <v>0</v>
-      </c>
-      <c r="J40" t="s" s="9">
-        <v>657</v>
-      </c>
-      <c r="K40" s="60">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="41" ht="18" customHeight="1">
-      <c r="A41" s="3">
-        <v>35</v>
-      </c>
-      <c r="B41" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C41" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D41" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E41" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F41" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="G41" s="3">
-        <v>17</v>
-      </c>
-      <c r="H41" s="3">
-        <v>17</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K41" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="42" ht="18" customHeight="1">
-      <c r="A42" s="3">
-        <v>36</v>
-      </c>
-      <c r="B42" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C42" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D42" t="s" s="3">
-        <v>110</v>
-      </c>
-      <c r="E42" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F42" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>22</v>
-      </c>
-      <c r="H42" s="3">
-        <v>25</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K42" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="43" ht="18" customHeight="1">
-      <c r="A43" s="3">
-        <v>37</v>
-      </c>
-      <c r="B43" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C43" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D43" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E43" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F43" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>19.75</v>
-      </c>
-      <c r="H43" s="3">
-        <v>20.75</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K43" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="44" ht="18" customHeight="1">
-      <c r="A44" s="3">
-        <v>38</v>
-      </c>
-      <c r="B44" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C44" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D44" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E44" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="F44" s="3">
-        <v>10</v>
-      </c>
-      <c r="G44" s="3">
-        <v>32</v>
-      </c>
-      <c r="H44" s="3">
-        <v>32</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K44" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="45" ht="18" customHeight="1">
-      <c r="A45" s="3">
-        <v>39</v>
-      </c>
-      <c r="B45" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C45" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D45" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E45" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="F45" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>24</v>
-      </c>
-      <c r="H45" s="3">
-        <v>24</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K45" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="46" ht="18" customHeight="1">
-      <c r="A46" s="3">
-        <v>40</v>
-      </c>
-      <c r="B46" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C46" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D46" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E46" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="F46" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>24</v>
-      </c>
-      <c r="H46" s="3">
-        <v>24</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K46" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="47" ht="18" customHeight="1">
-      <c r="A47" s="3">
-        <v>41</v>
-      </c>
-      <c r="B47" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C47" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="D47" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E47" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F47" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="H47" s="3">
-        <v>8.25</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K47" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="48" ht="18" customHeight="1">
-      <c r="A48" s="3">
-        <v>42</v>
-      </c>
-      <c r="B48" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C48" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="D48" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E48" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K48" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="49" ht="18" customHeight="1">
-      <c r="A49" s="3">
-        <v>43</v>
-      </c>
-      <c r="B49" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C49" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="D49" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E49" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F49" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>7.75</v>
-      </c>
-      <c r="H49" s="3">
-        <v>7.75</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K49" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="50" ht="18" customHeight="1">
-      <c r="A50" s="3">
-        <v>44</v>
-      </c>
-      <c r="B50" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C50" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="D50" t="s" s="3">
-        <v>110</v>
-      </c>
-      <c r="E50" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F50" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G50" s="3">
-        <v>8</v>
-      </c>
-      <c r="H50" s="3">
-        <v>10</v>
-      </c>
-      <c r="I50" s="3">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K50" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="51" ht="18" customHeight="1">
-      <c r="A51" s="3">
-        <v>45</v>
-      </c>
-      <c r="B51" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C51" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="D51" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="E51" t="s" s="11">
-        <v>62</v>
-      </c>
-      <c r="F51" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G51" s="3">
-        <v>12</v>
-      </c>
-      <c r="H51" s="3">
-        <v>12</v>
-      </c>
-      <c r="I51" s="3">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K51" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="52" ht="18" customHeight="1">
-      <c r="A52" s="3">
-        <v>46</v>
-      </c>
-      <c r="B52" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C52" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="D52" t="s" s="3">
-        <v>127</v>
-      </c>
-      <c r="E52" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F52" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K52" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="53" ht="18" customHeight="1">
-      <c r="A53" s="3">
-        <v>47</v>
-      </c>
-      <c r="B53" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C53" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="D53" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E53" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F53" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G53" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="H53" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0</v>
-      </c>
-      <c r="J53" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K53" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="54" ht="18" customHeight="1">
-      <c r="A54" s="3">
-        <v>48</v>
-      </c>
-      <c r="B54" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C54" t="s" s="3">
-        <v>72</v>
-      </c>
-      <c r="D54" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E54" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F54" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>6.75</v>
-      </c>
-      <c r="H54" s="3">
-        <v>6.75</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K54" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="55" ht="18" customHeight="1">
-      <c r="A55" s="3">
-        <v>49</v>
-      </c>
-      <c r="B55" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C55" t="s" s="3">
-        <v>130</v>
-      </c>
-      <c r="D55" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E55" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F55" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G55" s="3">
-        <v>21</v>
-      </c>
-      <c r="H55" s="3">
-        <v>21</v>
-      </c>
-      <c r="I55" s="3">
-        <v>0</v>
-      </c>
-      <c r="J55" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K55" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="56" ht="18" customHeight="1">
-      <c r="A56" s="3">
-        <v>50</v>
-      </c>
-      <c r="B56" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C56" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="D56" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E56" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F56" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G56" s="3">
-        <v>10</v>
-      </c>
-      <c r="H56" s="3">
-        <v>10</v>
-      </c>
-      <c r="I56" s="3">
-        <v>0</v>
-      </c>
-      <c r="J56" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K56" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="57" ht="18" customHeight="1">
-      <c r="A57" s="3">
-        <v>51</v>
-      </c>
-      <c r="B57" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C57" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="D57" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E57" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F57" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>10</v>
-      </c>
-      <c r="H57" s="3">
-        <v>10</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K57" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="58" ht="18" customHeight="1">
-      <c r="A58" s="3">
-        <v>52</v>
-      </c>
-      <c r="B58" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C58" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="D58" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="E58" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F58" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>18</v>
-      </c>
-      <c r="H58" s="3">
-        <v>18</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K58" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="59" ht="18" customHeight="1">
-      <c r="A59" s="3">
-        <v>53</v>
-      </c>
-      <c r="B59" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C59" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="D59" t="s" s="3">
-        <v>82</v>
-      </c>
-      <c r="E59" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F59" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K59" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="60" ht="18" customHeight="1">
-      <c r="A60" s="3">
-        <v>54</v>
-      </c>
-      <c r="B60" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C60" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="D60" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="E60" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F60" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>10</v>
-      </c>
-      <c r="H60" s="3">
-        <v>10</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K60" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="61" ht="18" customHeight="1">
-      <c r="A61" s="3">
-        <v>55</v>
-      </c>
-      <c r="B61" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C61" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="D61" t="s" s="3">
-        <v>88</v>
-      </c>
-      <c r="E61" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F61" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G61" s="3">
-        <v>9</v>
-      </c>
-      <c r="H61" s="3">
-        <v>9</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K61" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="62" ht="18" customHeight="1">
-      <c r="A62" s="3">
-        <v>56</v>
-      </c>
-      <c r="B62" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C62" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="D62" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="E62" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F62" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>13</v>
-      </c>
-      <c r="H62" s="3">
-        <v>14</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K62" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="63" ht="18" customHeight="1">
-      <c r="A63" s="8"/>
-      <c r="B63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D63" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="E63" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="F63" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="G63" s="2">
-        <v>10</v>
-      </c>
-      <c r="H63" s="2">
-        <v>10</v>
-      </c>
-      <c r="I63" s="2">
-        <v>0</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="K63" s="57">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="64" ht="18" customHeight="1">
-      <c r="A64" s="12">
-        <v>57</v>
-      </c>
-      <c r="B64" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="C64" t="s" s="15">
-        <v>75</v>
-      </c>
-      <c r="D64" t="s" s="15">
-        <v>133</v>
-      </c>
-      <c r="E64" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="F64" s="15">
-        <v>6.5</v>
-      </c>
-      <c r="G64" s="15">
-        <v>10</v>
-      </c>
-      <c r="H64" s="15">
-        <v>10</v>
-      </c>
-      <c r="I64" s="16"/>
-      <c r="J64" t="s" s="15">
-        <v>656</v>
-      </c>
-      <c r="K64" s="58">
-        <v>41954</v>
-      </c>
-    </row>
-    <row r="65" ht="18" customHeight="1">
-      <c r="A65" s="12">
-        <v>58</v>
-      </c>
-      <c r="B65" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="C65" t="s" s="15">
-        <v>152</v>
-      </c>
-      <c r="D65" t="s" s="15">
-        <v>21</v>
-      </c>
-      <c r="E65" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="F65" s="16"/>
-      <c r="G65" s="15">
-        <v>6</v>
-      </c>
-      <c r="H65" s="15">
-        <v>7</v>
-      </c>
-      <c r="I65" s="15">
-        <v>0</v>
-      </c>
-      <c r="J65" t="s" s="15">
-        <v>657</v>
-      </c>
-      <c r="K65" s="58">
-        <v>41932</v>
-      </c>
-    </row>
-    <row r="66" ht="18" customHeight="1">
-      <c r="A66" s="3">
-        <v>59</v>
-      </c>
-      <c r="B66" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="C66" t="s" s="9">
-        <v>75</v>
-      </c>
-      <c r="D66" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="E66" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="F66" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="G66" s="9">
-        <v>10</v>
-      </c>
-      <c r="H66" s="9">
-        <v>11</v>
-      </c>
-      <c r="I66" s="9">
-        <v>0</v>
-      </c>
-      <c r="J66" t="s" s="9">
-        <v>656</v>
-      </c>
-      <c r="K66" s="60">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="67" ht="18" customHeight="1">
-      <c r="A67" s="3">
-        <v>60</v>
-      </c>
-      <c r="B67" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C67" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="D67" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E67" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="F67" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G67" s="3">
-        <v>15</v>
-      </c>
-      <c r="H67" s="3">
-        <v>15</v>
-      </c>
-      <c r="I67" s="3">
-        <v>0</v>
-      </c>
-      <c r="J67" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K67" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="68" ht="18" customHeight="1">
-      <c r="A68" s="3">
-        <v>61</v>
-      </c>
-      <c r="B68" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C68" t="s" s="3">
-        <v>98</v>
-      </c>
-      <c r="D68" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E68" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F68" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G68" s="3">
-        <v>4.25</v>
-      </c>
-      <c r="H68" s="3">
-        <v>4.25</v>
-      </c>
-      <c r="I68" s="3">
-        <v>0</v>
-      </c>
-      <c r="J68" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K68" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="69" ht="18" customHeight="1">
-      <c r="A69" s="3">
-        <v>62</v>
-      </c>
-      <c r="B69" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C69" t="s" s="3">
-        <v>137</v>
-      </c>
-      <c r="D69" t="s" s="3">
-        <v>110</v>
-      </c>
-      <c r="E69" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F69" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G69" s="3">
-        <v>8</v>
-      </c>
-      <c r="H69" s="3">
-        <v>8</v>
-      </c>
-      <c r="I69" s="3">
-        <v>0</v>
-      </c>
-      <c r="J69" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K69" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="70" ht="18" customHeight="1">
-      <c r="A70" s="3">
-        <v>63</v>
-      </c>
-      <c r="B70" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C70" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="D70" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="E70" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F70" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="G70" s="3">
-        <v>8</v>
-      </c>
-      <c r="H70" s="3">
-        <v>8</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K70" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="71" ht="18" customHeight="1">
-      <c r="A71" s="3">
-        <v>64</v>
-      </c>
-      <c r="B71" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C71" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="D71" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E71" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F71" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G71" s="3">
-        <v>6</v>
-      </c>
-      <c r="H71" s="3">
-        <v>7</v>
-      </c>
-      <c r="I71" s="3">
-        <v>0</v>
-      </c>
-      <c r="J71" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K71" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="72" ht="18" customHeight="1">
-      <c r="A72" s="3">
-        <v>65</v>
-      </c>
-      <c r="B72" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C72" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="D72" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E72" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F72" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>4.25</v>
-      </c>
-      <c r="H72" s="3">
-        <v>4.25</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K72" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="73" ht="18" customHeight="1">
-      <c r="A73" s="3">
-        <v>66</v>
-      </c>
-      <c r="B73" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C73" t="s" s="3">
-        <v>138</v>
-      </c>
-      <c r="D73" t="s" s="3">
-        <v>110</v>
-      </c>
-      <c r="E73" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F73" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="G73" s="3">
-        <v>23</v>
-      </c>
-      <c r="H73" s="3">
-        <v>26</v>
-      </c>
-      <c r="I73" s="3">
-        <v>0</v>
-      </c>
-      <c r="J73" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K73" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="74" ht="18" customHeight="1">
-      <c r="A74" s="3">
-        <v>67</v>
-      </c>
-      <c r="B74" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C74" t="s" s="3">
-        <v>138</v>
-      </c>
-      <c r="D74" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E74" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="F74" s="3">
-        <v>7</v>
-      </c>
-      <c r="G74" s="3">
-        <v>26</v>
-      </c>
-      <c r="H74" s="3">
-        <v>26</v>
-      </c>
-      <c r="I74" s="3">
-        <v>0</v>
-      </c>
-      <c r="J74" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K74" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="75" ht="18" customHeight="1">
-      <c r="A75" s="3">
-        <v>68</v>
-      </c>
-      <c r="B75" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C75" t="s" s="3">
-        <v>104</v>
-      </c>
-      <c r="D75" t="s" s="3">
-        <v>127</v>
-      </c>
-      <c r="E75" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F75" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G75" s="2">
-        <v>8</v>
-      </c>
-      <c r="H75" s="2">
-        <v>8</v>
-      </c>
-      <c r="I75" s="3">
-        <v>0</v>
-      </c>
-      <c r="J75" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K75" s="57">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="76" ht="18" customHeight="1">
-      <c r="A76" s="3">
-        <v>69</v>
-      </c>
-      <c r="B76" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C76" t="s" s="3">
-        <v>104</v>
-      </c>
-      <c r="D76" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E76" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F76" s="12">
-        <v>6.5</v>
-      </c>
-      <c r="G76" s="34">
-        <v>6.75</v>
-      </c>
-      <c r="H76" s="34">
-        <v>7.75</v>
-      </c>
-      <c r="I76" s="7">
-        <v>0</v>
-      </c>
-      <c r="J76" t="s" s="12">
-        <v>657</v>
-      </c>
-      <c r="K76" s="58">
-        <v>41932</v>
-      </c>
-    </row>
-    <row r="77" ht="18" customHeight="1">
-      <c r="A77" s="8"/>
-      <c r="B77" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C77" t="s" s="3">
-        <v>104</v>
-      </c>
-      <c r="D77" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E77" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="F77" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G77" s="9">
-        <v>13</v>
-      </c>
-      <c r="H77" s="9">
-        <v>13</v>
-      </c>
-      <c r="I77" s="3">
-        <v>0</v>
-      </c>
-      <c r="J77" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K77" s="60">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="78" ht="18" customHeight="1">
-      <c r="A78" s="8"/>
-      <c r="B78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="D78" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="E78" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="F78" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="G78" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="H78" s="2">
-        <v>11.5</v>
-      </c>
-      <c r="I78" s="2">
-        <v>0</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="K78" s="57">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="79" ht="18" customHeight="1">
-      <c r="A79" s="26"/>
-      <c r="B79" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="C79" t="s" s="15">
-        <v>658</v>
-      </c>
-      <c r="D79" t="s" s="15">
-        <v>21</v>
-      </c>
-      <c r="E79" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="15">
-        <v>7.5</v>
-      </c>
-      <c r="H79" s="15">
-        <v>8.5</v>
-      </c>
-      <c r="I79" s="15">
-        <v>0</v>
-      </c>
-      <c r="J79" t="s" s="15">
-        <v>657</v>
-      </c>
-      <c r="K79" s="58">
-        <v>41932</v>
-      </c>
-    </row>
-    <row r="80" ht="18" customHeight="1">
-      <c r="A80" s="26"/>
-      <c r="B80" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="C80" t="s" s="15">
-        <v>659</v>
-      </c>
-      <c r="D80" t="s" s="15">
-        <v>21</v>
-      </c>
-      <c r="E80" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="F80" s="16"/>
-      <c r="G80" s="15">
-        <v>6.75</v>
-      </c>
-      <c r="H80" s="15">
-        <v>7.75</v>
-      </c>
-      <c r="I80" s="15">
-        <v>0</v>
-      </c>
-      <c r="J80" t="s" s="15">
-        <v>657</v>
-      </c>
-      <c r="K80" s="58">
-        <v>41932</v>
-      </c>
-    </row>
-    <row r="81" ht="18" customHeight="1">
-      <c r="A81" s="12">
-        <v>70</v>
-      </c>
-      <c r="B81" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="C81" t="s" s="15">
-        <v>175</v>
-      </c>
-      <c r="D81" t="s" s="15">
-        <v>21</v>
-      </c>
-      <c r="E81" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="F81" s="16"/>
-      <c r="G81" s="15">
-        <v>5.75</v>
-      </c>
-      <c r="H81" s="15">
-        <v>6.75</v>
-      </c>
-      <c r="I81" s="15">
-        <v>0</v>
-      </c>
-      <c r="J81" t="s" s="15">
-        <v>657</v>
-      </c>
-      <c r="K81" s="58">
-        <v>41932</v>
-      </c>
-    </row>
-    <row r="82" ht="18" customHeight="1">
-      <c r="A82" s="12">
-        <v>71</v>
-      </c>
-      <c r="B82" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="C82" t="s" s="15">
-        <v>106</v>
-      </c>
-      <c r="D82" t="s" s="15">
-        <v>21</v>
-      </c>
-      <c r="E82" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="F82" s="16"/>
-      <c r="G82" s="15">
-        <v>5.5</v>
-      </c>
-      <c r="H82" s="15">
-        <v>6.5</v>
-      </c>
-      <c r="I82" s="15">
-        <v>0</v>
-      </c>
-      <c r="J82" t="s" s="15">
-        <v>657</v>
-      </c>
-      <c r="K82" s="58">
-        <v>41932</v>
-      </c>
-    </row>
-    <row r="83" ht="18" customHeight="1">
-      <c r="A83" s="3">
-        <v>72</v>
-      </c>
-      <c r="B83" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="C83" t="s" s="9">
-        <v>109</v>
-      </c>
-      <c r="D83" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="E83" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="F83" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="G83" s="9">
-        <v>12</v>
-      </c>
-      <c r="H83" s="9">
-        <v>13</v>
-      </c>
-      <c r="I83" s="9">
-        <v>0</v>
-      </c>
-      <c r="J83" t="s" s="9">
-        <v>657</v>
-      </c>
-      <c r="K83" s="60">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="84" ht="18" customHeight="1">
-      <c r="A84" s="3">
-        <v>73</v>
-      </c>
-      <c r="B84" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C84" t="s" s="3">
-        <v>140</v>
-      </c>
-      <c r="D84" t="s" s="3">
-        <v>110</v>
-      </c>
-      <c r="E84" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F84" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="G84" s="3">
-        <v>24</v>
-      </c>
-      <c r="H84" s="3">
-        <v>27</v>
-      </c>
-      <c r="I84" s="3">
-        <v>0</v>
-      </c>
-      <c r="J84" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K84" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="85" ht="18" customHeight="1">
-      <c r="A85" s="3">
-        <v>74</v>
-      </c>
-      <c r="B85" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C85" t="s" s="3">
-        <v>140</v>
-      </c>
-      <c r="D85" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E85" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="F85" s="3">
-        <v>10</v>
-      </c>
-      <c r="G85" s="3">
-        <v>32</v>
-      </c>
-      <c r="H85" s="3">
-        <v>32</v>
-      </c>
-      <c r="I85" s="3">
-        <v>0</v>
-      </c>
-      <c r="J85" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K85" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="86" ht="18" customHeight="1">
-      <c r="A86" s="3">
-        <v>75</v>
-      </c>
-      <c r="B86" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C86" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D86" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E86" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F86" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="G86" s="3">
-        <v>8.75</v>
-      </c>
-      <c r="H86" s="3">
-        <v>8.75</v>
-      </c>
-      <c r="I86" s="3">
-        <v>0</v>
-      </c>
-      <c r="J86" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K86" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="87" ht="18" customHeight="1">
-      <c r="A87" s="3">
-        <v>76</v>
-      </c>
-      <c r="B87" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C87" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D87" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E87" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F87" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="G87" s="3">
-        <v>10</v>
-      </c>
-      <c r="H87" s="3">
-        <v>10</v>
-      </c>
-      <c r="I87" s="3">
-        <v>0</v>
-      </c>
-      <c r="J87" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K87" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="88" ht="18" customHeight="1">
-      <c r="A88" s="3">
-        <v>77</v>
-      </c>
-      <c r="B88" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C88" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D88" t="s" s="3">
-        <v>110</v>
-      </c>
-      <c r="E88" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F88" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="G88" s="3">
-        <v>9</v>
-      </c>
-      <c r="H88" s="3">
-        <v>11</v>
-      </c>
-      <c r="I88" s="3">
-        <v>0</v>
-      </c>
-      <c r="J88" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K88" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="89" ht="18" customHeight="1">
-      <c r="A89" s="3">
-        <v>78</v>
-      </c>
-      <c r="B89" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C89" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D89" t="s" s="3">
-        <v>142</v>
-      </c>
-      <c r="E89" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F89" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="H89" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K89" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="90" ht="18" customHeight="1">
-      <c r="A90" s="3">
-        <v>79</v>
-      </c>
-      <c r="B90" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C90" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D90" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="E90" t="s" s="11">
-        <v>62</v>
-      </c>
-      <c r="F90" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="G90" s="3">
-        <v>16</v>
-      </c>
-      <c r="H90" s="3">
-        <v>16</v>
-      </c>
-      <c r="I90" s="3">
-        <v>0</v>
-      </c>
-      <c r="J90" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K90" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="91" ht="18" customHeight="1">
-      <c r="A91" s="3">
-        <v>80</v>
-      </c>
-      <c r="B91" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C91" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D91" t="s" s="3">
-        <v>145</v>
-      </c>
-      <c r="E91" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F91" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="H91" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K91" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="92" ht="18" customHeight="1">
-      <c r="A92" s="3">
-        <v>81</v>
-      </c>
-      <c r="B92" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C92" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D92" t="s" s="3">
-        <v>127</v>
-      </c>
-      <c r="E92" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F92" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="G92" s="3">
-        <v>10</v>
-      </c>
-      <c r="H92" s="3">
-        <v>10</v>
-      </c>
-      <c r="I92" s="3">
-        <v>0</v>
-      </c>
-      <c r="J92" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K92" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="93" ht="18" customHeight="1">
-      <c r="A93" s="3">
-        <v>82</v>
-      </c>
-      <c r="B93" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C93" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D93" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E93" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F93" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="G93" s="3">
-        <v>9.25</v>
-      </c>
-      <c r="H93" s="3">
-        <v>10.25</v>
-      </c>
-      <c r="I93" s="3">
-        <v>0</v>
-      </c>
-      <c r="J93" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K93" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="94" ht="18" customHeight="1">
-      <c r="A94" s="3">
-        <v>83</v>
-      </c>
-      <c r="B94" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C94" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D94" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E94" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="F94" s="3">
-        <v>6</v>
-      </c>
-      <c r="G94" s="3">
-        <v>16</v>
-      </c>
-      <c r="H94" s="3">
-        <v>16</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K94" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="95" ht="18" customHeight="1">
-      <c r="A95" s="3">
-        <v>84</v>
-      </c>
-      <c r="B95" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C95" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D95" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E95" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="F95" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="G95" s="3">
-        <v>10</v>
-      </c>
-      <c r="H95" s="3">
-        <v>10</v>
-      </c>
-      <c r="I95" s="3">
-        <v>0</v>
-      </c>
-      <c r="J95" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K95" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="96" ht="18" customHeight="1">
-      <c r="A96" s="3">
-        <v>85</v>
-      </c>
-      <c r="B96" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C96" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D96" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E96" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="F96" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="G96" s="3">
-        <v>12</v>
-      </c>
-      <c r="H96" s="3">
-        <v>12</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K96" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="97" ht="18" customHeight="1">
-      <c r="A97" s="3">
-        <v>86</v>
-      </c>
-      <c r="B97" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C97" t="s" s="3">
-        <v>151</v>
-      </c>
-      <c r="D97" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E97" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F97" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G97" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="H97" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="I97" s="3">
-        <v>0</v>
-      </c>
-      <c r="J97" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K97" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="98" ht="18" customHeight="1">
-      <c r="A98" s="3">
-        <v>87</v>
-      </c>
-      <c r="B98" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C98" t="s" s="3">
-        <v>151</v>
-      </c>
-      <c r="D98" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E98" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F98" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G98" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="H98" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="I98" s="3">
-        <v>0</v>
-      </c>
-      <c r="J98" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K98" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="99" ht="18" customHeight="1">
-      <c r="A99" s="3">
-        <v>88</v>
-      </c>
-      <c r="B99" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C99" t="s" s="3">
-        <v>152</v>
-      </c>
-      <c r="D99" t="s" s="3">
-        <v>110</v>
-      </c>
-      <c r="E99" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F99" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G99" s="3">
-        <v>8</v>
-      </c>
-      <c r="H99" s="3">
-        <v>8</v>
-      </c>
-      <c r="I99" s="3">
-        <v>0</v>
-      </c>
-      <c r="J99" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K99" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="100" ht="18" customHeight="1">
-      <c r="A100" s="3">
-        <v>89</v>
-      </c>
-      <c r="B100" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C100" t="s" s="3">
-        <v>153</v>
-      </c>
-      <c r="D100" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E100" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F100" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>14.5</v>
-      </c>
-      <c r="H100" s="3">
-        <v>15.5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K100" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="101" ht="18" customHeight="1">
-      <c r="A101" s="3">
-        <v>90</v>
-      </c>
-      <c r="B101" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C101" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D101" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E101" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F101" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G101" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="H101" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K101" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="102" ht="18" customHeight="1">
-      <c r="A102" s="3">
-        <v>91</v>
-      </c>
-      <c r="B102" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C102" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D102" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="E102" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F102" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>15</v>
-      </c>
-      <c r="H102" s="3">
-        <v>15</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K102" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="103" ht="18" customHeight="1">
-      <c r="A103" s="3">
-        <v>92</v>
-      </c>
-      <c r="B103" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C103" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D103" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="E103" t="s" s="3">
-        <v>120</v>
-      </c>
-      <c r="F103" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G103" s="3">
-        <v>15</v>
-      </c>
-      <c r="H103" s="3">
-        <v>15</v>
-      </c>
-      <c r="I103" s="3">
-        <v>0</v>
-      </c>
-      <c r="J103" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K103" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="104" ht="18" customHeight="1">
-      <c r="A104" s="3">
-        <v>93</v>
-      </c>
-      <c r="B104" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C104" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D104" t="s" s="3">
-        <v>110</v>
-      </c>
-      <c r="E104" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F104" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G104" s="3">
-        <v>8</v>
-      </c>
-      <c r="H104" s="3">
-        <v>10</v>
-      </c>
-      <c r="I104" s="3">
-        <v>0</v>
-      </c>
-      <c r="J104" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K104" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="105" ht="18" customHeight="1">
-      <c r="A105" s="3">
-        <v>94</v>
-      </c>
-      <c r="B105" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C105" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D105" t="s" s="3">
-        <v>142</v>
-      </c>
-      <c r="E105" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F105" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G105" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="H105" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="I105" s="3">
-        <v>0</v>
-      </c>
-      <c r="J105" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K105" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="106" ht="18" customHeight="1">
-      <c r="A106" s="3">
-        <v>95</v>
-      </c>
-      <c r="B106" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C106" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D106" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="E106" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F106" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G106" s="3">
-        <v>13</v>
-      </c>
-      <c r="H106" s="3">
-        <v>13</v>
-      </c>
-      <c r="I106" s="3">
-        <v>0</v>
-      </c>
-      <c r="J106" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K106" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="107" ht="18" customHeight="1">
-      <c r="A107" s="3">
-        <v>96</v>
-      </c>
-      <c r="B107" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C107" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D107" t="s" s="3">
-        <v>159</v>
-      </c>
-      <c r="E107" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="F107" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="G107" s="3">
-        <v>8</v>
-      </c>
-      <c r="H107" s="3">
-        <v>10</v>
-      </c>
-      <c r="I107" s="3">
-        <v>0</v>
-      </c>
-      <c r="J107" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K107" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="108" ht="18" customHeight="1">
-      <c r="A108" s="3">
-        <v>97</v>
-      </c>
-      <c r="B108" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C108" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D108" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="E108" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F108" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G108" s="3">
-        <v>10</v>
-      </c>
-      <c r="H108" s="3">
-        <v>13</v>
-      </c>
-      <c r="I108" s="3">
-        <v>0</v>
-      </c>
-      <c r="J108" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K108" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="109" ht="18" customHeight="1">
-      <c r="A109" s="3">
-        <v>98</v>
-      </c>
-      <c r="B109" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C109" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D109" t="s" s="3">
-        <v>162</v>
-      </c>
-      <c r="E109" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="F109" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="G109" s="3">
-        <v>8</v>
-      </c>
-      <c r="H109" s="3">
-        <v>10</v>
-      </c>
-      <c r="I109" s="3">
-        <v>0</v>
-      </c>
-      <c r="J109" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K109" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="110" ht="18" customHeight="1">
-      <c r="A110" s="3">
-        <v>99</v>
-      </c>
-      <c r="B110" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C110" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D110" t="s" s="3">
-        <v>164</v>
-      </c>
-      <c r="E110" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F110" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G110" s="3">
-        <v>7</v>
-      </c>
-      <c r="H110" s="3">
-        <v>7</v>
-      </c>
-      <c r="I110" s="3">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K110" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="111" ht="18" customHeight="1">
-      <c r="A111" s="3">
-        <v>100</v>
-      </c>
-      <c r="B111" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C111" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D111" t="s" s="3">
-        <v>145</v>
-      </c>
-      <c r="E111" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F111" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G111" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="H111" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="I111" s="3">
-        <v>0</v>
-      </c>
-      <c r="J111" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K111" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="112" ht="18" customHeight="1">
-      <c r="A112" s="3">
-        <v>101</v>
-      </c>
-      <c r="B112" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C112" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D112" t="s" s="3">
-        <v>127</v>
-      </c>
-      <c r="E112" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F112" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G112" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="H112" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="I112" s="3">
-        <v>0</v>
-      </c>
-      <c r="J112" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K112" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="113" ht="18" customHeight="1">
-      <c r="A113" s="3">
-        <v>102</v>
-      </c>
-      <c r="B113" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C113" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D113" t="s" s="3">
-        <v>168</v>
-      </c>
-      <c r="E113" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="F113" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="G113" s="3">
-        <v>8</v>
-      </c>
-      <c r="H113" s="3">
-        <v>10</v>
-      </c>
-      <c r="I113" s="3">
-        <v>0</v>
-      </c>
-      <c r="J113" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K113" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="114" ht="18" customHeight="1">
-      <c r="A114" s="3">
-        <v>103</v>
-      </c>
-      <c r="B114" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C114" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D114" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E114" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F114" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G114" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="H114" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="I114" s="3">
-        <v>0</v>
-      </c>
-      <c r="J114" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K114" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="115" ht="18" customHeight="1">
-      <c r="A115" s="3">
-        <v>104</v>
-      </c>
-      <c r="B115" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C115" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D115" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E115" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="F115" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G115" s="3">
-        <v>9</v>
-      </c>
-      <c r="H115" s="3">
-        <v>9</v>
-      </c>
-      <c r="I115" s="3">
-        <v>0</v>
-      </c>
-      <c r="J115" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K115" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="116" ht="18" customHeight="1">
-      <c r="A116" s="3">
-        <v>105</v>
-      </c>
-      <c r="B116" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C116" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D116" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E116" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="F116" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G116" s="3">
-        <v>11</v>
-      </c>
-      <c r="H116" s="3">
-        <v>11</v>
-      </c>
-      <c r="I116" s="3">
-        <v>0</v>
-      </c>
-      <c r="J116" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K116" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="117" ht="18" customHeight="1">
-      <c r="A117" s="3">
-        <v>106</v>
-      </c>
-      <c r="B117" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C117" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="D117" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E117" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F117" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G117" s="3">
-        <v>5</v>
-      </c>
-      <c r="H117" s="3">
-        <v>5</v>
-      </c>
-      <c r="I117" s="3">
-        <v>0</v>
-      </c>
-      <c r="J117" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K117" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="118" ht="18" customHeight="1">
-      <c r="A118" s="3">
-        <v>107</v>
-      </c>
-      <c r="B118" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C118" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="D118" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E118" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F118" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G118" s="3">
-        <v>5</v>
-      </c>
-      <c r="H118" s="3">
-        <v>5</v>
-      </c>
-      <c r="I118" s="3">
-        <v>0</v>
-      </c>
-      <c r="J118" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K118" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="119" ht="18" customHeight="1">
-      <c r="A119" s="3">
-        <v>108</v>
-      </c>
-      <c r="B119" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C119" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="D119" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="E119" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F119" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G119" s="3">
-        <v>10</v>
-      </c>
-      <c r="H119" s="3">
-        <v>10</v>
-      </c>
-      <c r="I119" s="3">
-        <v>0</v>
-      </c>
-      <c r="J119" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K119" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="120" ht="18" customHeight="1">
-      <c r="A120" s="3">
-        <v>109</v>
-      </c>
-      <c r="B120" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C120" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="D120" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="E120" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="F120" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G120" s="3">
-        <v>10</v>
-      </c>
-      <c r="H120" s="3">
-        <v>12</v>
-      </c>
-      <c r="I120" s="3">
-        <v>0</v>
-      </c>
-      <c r="J120" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K120" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="121" ht="18" customHeight="1">
-      <c r="A121" s="3">
-        <v>110</v>
-      </c>
-      <c r="B121" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C121" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="D121" t="s" s="3">
-        <v>162</v>
-      </c>
-      <c r="E121" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="F121" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="G121" s="3">
-        <v>7</v>
-      </c>
-      <c r="H121" s="3">
-        <v>9</v>
-      </c>
-      <c r="I121" s="3">
-        <v>0</v>
-      </c>
-      <c r="J121" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K121" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="122" ht="18" customHeight="1">
-      <c r="A122" s="3">
-        <v>111</v>
-      </c>
-      <c r="B122" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C122" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="D122" t="s" s="3">
-        <v>127</v>
-      </c>
-      <c r="E122" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F122" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G122" s="3">
-        <v>5.75</v>
-      </c>
-      <c r="H122" s="3">
-        <v>5.75</v>
-      </c>
-      <c r="I122" s="3">
-        <v>0</v>
-      </c>
-      <c r="J122" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K122" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="123" ht="18" customHeight="1">
-      <c r="A123" s="3">
-        <v>112</v>
-      </c>
-      <c r="B123" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C123" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="D123" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E123" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F123" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G123" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="H123" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="I123" s="3">
-        <v>0</v>
-      </c>
-      <c r="J123" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K123" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="124" ht="18" customHeight="1">
-      <c r="A124" s="3">
-        <v>113</v>
-      </c>
-      <c r="B124" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C124" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="D124" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E124" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="F124" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G124" s="3">
-        <v>8</v>
-      </c>
-      <c r="H124" s="3">
-        <v>8</v>
-      </c>
-      <c r="I124" s="3">
-        <v>0</v>
-      </c>
-      <c r="J124" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K124" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="125" ht="18" customHeight="1">
-      <c r="A125" s="3">
-        <v>114</v>
-      </c>
-      <c r="B125" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C125" t="s" s="3">
-        <v>175</v>
-      </c>
-      <c r="D125" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E125" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F125" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G125" s="3">
-        <v>4.75</v>
-      </c>
-      <c r="H125" s="3">
-        <v>4.75</v>
-      </c>
-      <c r="I125" s="3">
-        <v>0</v>
-      </c>
-      <c r="J125" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K125" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="126" ht="18" customHeight="1">
-      <c r="A126" s="3">
-        <v>115</v>
-      </c>
-      <c r="B126" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C126" t="s" s="3">
-        <v>176</v>
-      </c>
-      <c r="D126" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E126" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F126" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G126" s="3">
-        <v>10</v>
-      </c>
-      <c r="H126" s="3">
-        <v>10</v>
-      </c>
-      <c r="I126" s="3">
-        <v>0</v>
-      </c>
-      <c r="J126" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K126" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="127" ht="18" customHeight="1">
-      <c r="A127" s="3">
-        <v>116</v>
-      </c>
-      <c r="B127" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C127" t="s" s="3">
-        <v>177</v>
-      </c>
-      <c r="D127" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E127" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F127" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="G127" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="H127" s="3">
-        <v>14.5</v>
-      </c>
-      <c r="I127" s="3">
-        <v>0</v>
-      </c>
-      <c r="J127" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K127" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="128" ht="18" customHeight="1">
-      <c r="A128" s="3">
-        <v>117</v>
-      </c>
-      <c r="B128" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C128" t="s" s="3">
-        <v>141</v>
-      </c>
-      <c r="D128" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E128" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F128" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G128" s="3">
-        <v>6.75</v>
-      </c>
-      <c r="H128" s="3">
-        <v>6.75</v>
-      </c>
-      <c r="I128" s="3">
-        <v>0</v>
-      </c>
-      <c r="J128" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K128" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="129" ht="18" customHeight="1">
-      <c r="A129" s="3">
-        <v>118</v>
-      </c>
-      <c r="B129" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C129" t="s" s="3">
-        <v>141</v>
-      </c>
-      <c r="D129" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E129" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F129" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G129" s="3">
-        <v>8.75</v>
-      </c>
-      <c r="H129" s="3">
-        <v>8.75</v>
-      </c>
-      <c r="I129" s="3">
-        <v>0</v>
-      </c>
-      <c r="J129" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K129" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="130" ht="18" customHeight="1">
-      <c r="A130" s="3">
-        <v>119</v>
-      </c>
-      <c r="B130" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C130" t="s" s="3">
-        <v>178</v>
-      </c>
-      <c r="D130" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E130" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F130" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G130" s="2">
-        <v>6.25</v>
-      </c>
-      <c r="H130" s="2">
-        <v>6.25</v>
-      </c>
-      <c r="I130" s="3">
-        <v>0</v>
-      </c>
-      <c r="J130" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K130" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="131" ht="18" customHeight="1">
-      <c r="A131" s="3">
-        <v>120</v>
-      </c>
-      <c r="B131" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C131" t="s" s="3">
-        <v>645</v>
-      </c>
-      <c r="D131" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E131" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F131" s="12">
-        <v>10.5</v>
-      </c>
-      <c r="G131" s="15">
-        <v>30.25</v>
-      </c>
-      <c r="H131" s="15">
-        <v>31.25</v>
-      </c>
-      <c r="I131" s="7">
-        <v>0</v>
-      </c>
-      <c r="J131" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K131" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="132" ht="18" customHeight="1">
-      <c r="A132" s="3">
-        <v>121</v>
-      </c>
-      <c r="B132" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C132" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D132" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E132" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="F132" s="3">
-        <v>4</v>
-      </c>
-      <c r="G132" s="9">
-        <v>11</v>
-      </c>
-      <c r="H132" s="9">
-        <v>11</v>
-      </c>
-      <c r="I132" s="3">
-        <v>0</v>
-      </c>
-      <c r="J132" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K132" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="133" ht="18" customHeight="1">
-      <c r="A133" s="3">
-        <v>122</v>
-      </c>
-      <c r="B133" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C133" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D133" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E133" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F133" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="G133" s="3">
-        <v>8.75</v>
-      </c>
-      <c r="H133" s="3">
-        <v>8.75</v>
-      </c>
-      <c r="I133" s="3">
-        <v>0</v>
-      </c>
-      <c r="J133" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K133" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="134" ht="18" customHeight="1">
-      <c r="A134" s="3">
-        <v>123</v>
-      </c>
-      <c r="B134" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C134" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D134" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E134" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F134" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="G134" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="H134" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="I134" s="3">
-        <v>0</v>
-      </c>
-      <c r="J134" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K134" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="135" ht="18" customHeight="1">
-      <c r="A135" s="3">
-        <v>124</v>
-      </c>
-      <c r="B135" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C135" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D135" t="s" s="3">
-        <v>110</v>
-      </c>
-      <c r="E135" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F135" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="G135" s="3">
-        <v>7</v>
-      </c>
-      <c r="H135" s="3">
-        <v>9</v>
-      </c>
-      <c r="I135" s="3">
-        <v>0</v>
-      </c>
-      <c r="J135" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K135" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="136" ht="18" customHeight="1">
-      <c r="A136" s="3">
-        <v>125</v>
-      </c>
-      <c r="B136" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C136" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D136" t="s" s="3">
-        <v>142</v>
-      </c>
-      <c r="E136" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F136" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="G136" s="3">
-        <v>7</v>
-      </c>
-      <c r="H136" s="3">
-        <v>7</v>
-      </c>
-      <c r="I136" s="3">
-        <v>0</v>
-      </c>
-      <c r="J136" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K136" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="137" ht="18" customHeight="1">
-      <c r="A137" s="3">
-        <v>126</v>
-      </c>
-      <c r="B137" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C137" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D137" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="E137" t="s" s="11">
-        <v>62</v>
-      </c>
-      <c r="F137" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="G137" s="3">
-        <v>16</v>
-      </c>
-      <c r="H137" s="3">
-        <v>16</v>
-      </c>
-      <c r="I137" s="3">
-        <v>0</v>
-      </c>
-      <c r="J137" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K137" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="138" ht="18" customHeight="1">
-      <c r="A138" s="3">
-        <v>127</v>
-      </c>
-      <c r="B138" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C138" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D138" t="s" s="3">
-        <v>145</v>
-      </c>
-      <c r="E138" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F138" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="G138" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="H138" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="I138" s="3">
-        <v>0</v>
-      </c>
-      <c r="J138" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K138" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="139" ht="18" customHeight="1">
-      <c r="A139" s="3">
-        <v>128</v>
-      </c>
-      <c r="B139" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C139" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D139" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E139" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F139" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="G139" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="H139" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="I139" s="3">
-        <v>0</v>
-      </c>
-      <c r="J139" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K139" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="140" ht="18" customHeight="1">
-      <c r="A140" s="3">
-        <v>129</v>
-      </c>
-      <c r="B140" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C140" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D140" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E140" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="F140" s="3">
-        <v>6</v>
-      </c>
-      <c r="G140" s="3">
-        <v>16</v>
-      </c>
-      <c r="H140" s="3">
-        <v>16</v>
-      </c>
-      <c r="I140" s="3">
-        <v>0</v>
-      </c>
-      <c r="J140" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K140" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="141" ht="18" customHeight="1">
-      <c r="A141" s="3">
-        <v>130</v>
-      </c>
-      <c r="B141" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C141" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D141" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E141" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="F141" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="G141" s="3">
-        <v>10</v>
-      </c>
-      <c r="H141" s="3">
-        <v>10</v>
-      </c>
-      <c r="I141" s="3">
-        <v>0</v>
-      </c>
-      <c r="J141" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K141" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="142" ht="18" customHeight="1">
-      <c r="A142" s="3">
-        <v>131</v>
-      </c>
-      <c r="B142" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C142" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D142" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E142" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="F142" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="G142" s="3">
-        <v>12</v>
-      </c>
-      <c r="H142" s="3">
-        <v>12</v>
-      </c>
-      <c r="I142" s="3">
-        <v>0</v>
-      </c>
-      <c r="J142" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K142" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="143" ht="18" customHeight="1">
-      <c r="A143" s="3">
-        <v>132</v>
-      </c>
-      <c r="B143" t="s" s="3">
-        <v>151</v>
-      </c>
-      <c r="C143" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D143" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E143" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F143" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G143" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="H143" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="I143" s="3">
-        <v>0</v>
-      </c>
-      <c r="J143" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K143" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="144" ht="18" customHeight="1">
-      <c r="A144" s="3">
-        <v>133</v>
-      </c>
-      <c r="B144" t="s" s="3">
-        <v>151</v>
-      </c>
-      <c r="C144" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D144" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E144" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F144" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G144" s="11">
-        <v>5.5</v>
-      </c>
-      <c r="H144" s="11">
-        <v>5.5</v>
-      </c>
-      <c r="I144" s="3">
-        <v>0</v>
-      </c>
-      <c r="J144" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K144" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="145" ht="18" customHeight="1">
-      <c r="A145" s="3">
-        <v>134</v>
-      </c>
-      <c r="B145" t="s" s="3">
-        <v>153</v>
-      </c>
-      <c r="C145" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D145" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E145" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F145" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="G145" s="11">
-        <v>10</v>
-      </c>
-      <c r="H145" s="11">
-        <v>10</v>
-      </c>
-      <c r="I145" s="3">
-        <v>0</v>
-      </c>
-      <c r="J145" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K145" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="146" ht="18" customHeight="1">
-      <c r="A146" s="3">
-        <v>135</v>
-      </c>
-      <c r="B146" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C146" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D146" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E146" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F146" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G146" s="3">
-        <v>10</v>
-      </c>
-      <c r="H146" s="3">
-        <v>10</v>
-      </c>
-      <c r="I146" s="3">
-        <v>0</v>
-      </c>
-      <c r="J146" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K146" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="147" ht="18" customHeight="1">
-      <c r="A147" s="3">
-        <v>136</v>
-      </c>
-      <c r="B147" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C147" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D147" t="s" s="3">
-        <v>159</v>
-      </c>
-      <c r="E147" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="F147" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G147" s="3">
-        <v>22</v>
-      </c>
-      <c r="H147" s="3">
-        <v>22</v>
-      </c>
-      <c r="I147" s="3">
-        <v>0</v>
-      </c>
-      <c r="J147" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K147" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="148" ht="18" customHeight="1">
-      <c r="A148" s="3">
-        <v>137</v>
-      </c>
-      <c r="B148" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C148" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D148" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E148" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="F148" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="G148" s="3">
-        <v>15</v>
-      </c>
-      <c r="H148" s="3">
-        <v>15</v>
-      </c>
-      <c r="I148" s="3">
-        <v>0</v>
-      </c>
-      <c r="J148" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K148" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="149" ht="18" customHeight="1">
-      <c r="A149" s="3">
-        <v>138</v>
-      </c>
-      <c r="B149" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C149" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="D149" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E149" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F149" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G149" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="H149" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="I149" s="3">
-        <v>0</v>
-      </c>
-      <c r="J149" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K149" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="150" ht="18" customHeight="1">
-      <c r="A150" s="3">
-        <v>139</v>
-      </c>
-      <c r="B150" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C150" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="D150" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="E150" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F150" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="G150" s="3">
-        <v>22</v>
-      </c>
-      <c r="H150" s="3">
-        <v>26</v>
-      </c>
-      <c r="I150" s="3">
-        <v>0</v>
-      </c>
-      <c r="J150" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K150" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="151" ht="18" customHeight="1">
-      <c r="A151" s="3">
-        <v>140</v>
-      </c>
-      <c r="B151" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C151" t="s" s="3">
-        <v>138</v>
-      </c>
-      <c r="D151" t="s" s="3">
-        <v>159</v>
-      </c>
-      <c r="E151" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="F151" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G151" s="3">
-        <v>24</v>
-      </c>
-      <c r="H151" s="3">
-        <v>24</v>
-      </c>
-      <c r="I151" s="3">
-        <v>0</v>
-      </c>
-      <c r="J151" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K151" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="152" ht="18" customHeight="1">
-      <c r="A152" s="3">
-        <v>141</v>
-      </c>
-      <c r="B152" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C152" t="s" s="3">
-        <v>140</v>
-      </c>
-      <c r="D152" t="s" s="3">
-        <v>159</v>
-      </c>
-      <c r="E152" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="F152" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G152" s="3">
-        <v>22</v>
-      </c>
-      <c r="H152" s="3">
-        <v>22</v>
-      </c>
-      <c r="I152" s="3">
-        <v>0</v>
-      </c>
-      <c r="J152" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K152" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="153" ht="18" customHeight="1">
-      <c r="A153" s="3">
-        <v>142</v>
-      </c>
-      <c r="B153" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C153" t="s" s="3">
-        <v>140</v>
-      </c>
-      <c r="D153" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E153" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="F153" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="G153" s="3">
-        <v>18</v>
-      </c>
-      <c r="H153" s="3">
-        <v>18</v>
-      </c>
-      <c r="I153" s="3">
-        <v>0</v>
-      </c>
-      <c r="J153" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K153" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="154" ht="18" customHeight="1">
-      <c r="A154" s="3">
-        <v>143</v>
-      </c>
-      <c r="B154" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C154" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D154" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E154" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F154" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G154" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="H154" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="I154" s="3">
-        <v>0</v>
-      </c>
-      <c r="J154" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K154" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="155" ht="18" customHeight="1">
-      <c r="A155" s="3">
-        <v>144</v>
-      </c>
-      <c r="B155" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C155" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D155" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="E155" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F155" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G155" s="3">
-        <v>15</v>
-      </c>
-      <c r="H155" s="3">
-        <v>15</v>
-      </c>
-      <c r="I155" s="3">
-        <v>0</v>
-      </c>
-      <c r="J155" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K155" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="156" ht="18" customHeight="1">
-      <c r="A156" s="3">
-        <v>145</v>
-      </c>
-      <c r="B156" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C156" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D156" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="E156" t="s" s="3">
-        <v>120</v>
-      </c>
-      <c r="F156" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G156" s="3">
-        <v>15</v>
-      </c>
-      <c r="H156" s="3">
-        <v>15</v>
-      </c>
-      <c r="I156" s="3">
-        <v>0</v>
-      </c>
-      <c r="J156" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K156" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="157" ht="18" customHeight="1">
-      <c r="A157" s="3">
-        <v>146</v>
-      </c>
-      <c r="B157" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C157" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D157" t="s" s="3">
-        <v>110</v>
-      </c>
-      <c r="E157" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F157" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G157" s="3">
-        <v>8</v>
-      </c>
-      <c r="H157" s="3">
-        <v>10</v>
-      </c>
-      <c r="I157" s="3">
-        <v>0</v>
-      </c>
-      <c r="J157" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K157" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="158" ht="18" customHeight="1">
-      <c r="A158" s="3">
-        <v>147</v>
-      </c>
-      <c r="B158" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C158" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D158" t="s" s="3">
-        <v>142</v>
-      </c>
-      <c r="E158" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F158" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G158" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="H158" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="I158" s="3">
-        <v>0</v>
-      </c>
-      <c r="J158" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K158" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="159" ht="18" customHeight="1">
-      <c r="A159" s="3">
-        <v>148</v>
-      </c>
-      <c r="B159" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C159" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D159" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="E159" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F159" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G159" s="3">
-        <v>13</v>
-      </c>
-      <c r="H159" s="3">
-        <v>13</v>
-      </c>
-      <c r="I159" s="3">
-        <v>0</v>
-      </c>
-      <c r="J159" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K159" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="160" ht="18" customHeight="1">
-      <c r="A160" s="3">
-        <v>149</v>
-      </c>
-      <c r="B160" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C160" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D160" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="E160" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F160" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G160" s="3">
-        <v>10</v>
-      </c>
-      <c r="H160" s="3">
-        <v>13</v>
-      </c>
-      <c r="I160" s="3">
-        <v>0</v>
-      </c>
-      <c r="J160" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K160" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="161" ht="18" customHeight="1">
-      <c r="A161" s="3">
-        <v>150</v>
-      </c>
-      <c r="B161" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C161" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D161" t="s" s="3">
-        <v>164</v>
-      </c>
-      <c r="E161" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F161" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G161" s="3">
-        <v>5</v>
-      </c>
-      <c r="H161" s="3">
-        <v>5</v>
-      </c>
-      <c r="I161" s="3">
-        <v>0</v>
-      </c>
-      <c r="J161" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K161" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="162" ht="18" customHeight="1">
-      <c r="A162" s="3">
-        <v>151</v>
-      </c>
-      <c r="B162" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C162" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D162" t="s" s="3">
-        <v>145</v>
-      </c>
-      <c r="E162" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F162" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G162" s="3">
-        <v>5</v>
-      </c>
-      <c r="H162" s="3">
-        <v>5</v>
-      </c>
-      <c r="I162" s="3">
-        <v>0</v>
-      </c>
-      <c r="J162" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K162" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="163" ht="18" customHeight="1">
-      <c r="A163" s="3">
-        <v>152</v>
-      </c>
-      <c r="B163" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C163" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D163" t="s" s="3">
-        <v>168</v>
-      </c>
-      <c r="E163" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="F163" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="G163" s="3">
-        <v>10</v>
-      </c>
-      <c r="H163" s="3">
-        <v>10</v>
-      </c>
-      <c r="I163" s="3">
-        <v>0</v>
-      </c>
-      <c r="J163" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K163" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="164" ht="18" customHeight="1">
-      <c r="A164" s="3">
-        <v>153</v>
-      </c>
-      <c r="B164" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C164" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D164" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E164" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F164" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G164" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="H164" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="I164" s="3">
-        <v>0</v>
-      </c>
-      <c r="J164" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K164" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="165" ht="18" customHeight="1">
-      <c r="A165" s="3">
-        <v>154</v>
-      </c>
-      <c r="B165" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C165" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D165" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E165" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="F165" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G165" s="3">
-        <v>9</v>
-      </c>
-      <c r="H165" s="3">
-        <v>9</v>
-      </c>
-      <c r="I165" s="3">
-        <v>0</v>
-      </c>
-      <c r="J165" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K165" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="166" ht="18" customHeight="1">
-      <c r="A166" s="3">
-        <v>155</v>
-      </c>
-      <c r="B166" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C166" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D166" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E166" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="F166" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="G166" s="3">
-        <v>11</v>
-      </c>
-      <c r="H166" s="3">
-        <v>11</v>
-      </c>
-      <c r="I166" s="3">
-        <v>0</v>
-      </c>
-      <c r="J166" s="8"/>
-      <c r="K166" s="8"/>
-    </row>
-    <row r="167" ht="18" customHeight="1">
-      <c r="A167" s="3">
-        <v>156</v>
-      </c>
-      <c r="B167" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C167" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D167" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E167" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F167" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G167" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="H167" s="3">
-        <v>3.75</v>
-      </c>
-      <c r="I167" s="3">
-        <v>0</v>
-      </c>
-      <c r="J167" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K167" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="168" ht="18" customHeight="1">
-      <c r="A168" s="3">
-        <v>157</v>
-      </c>
-      <c r="B168" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C168" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="D168" t="s" s="3">
-        <v>159</v>
-      </c>
-      <c r="E168" t="s" s="3">
-        <v>31</v>
-      </c>
-      <c r="F168" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="G168" s="3">
-        <v>7</v>
-      </c>
-      <c r="H168" s="3">
-        <v>9</v>
-      </c>
-      <c r="I168" s="3">
-        <v>0</v>
-      </c>
-      <c r="J168" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K168" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="169" ht="18" customHeight="1">
-      <c r="A169" s="3">
-        <v>158</v>
-      </c>
-      <c r="B169" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C169" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="D169" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="E169" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F169" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="G169" s="3">
-        <v>19</v>
-      </c>
-      <c r="H169" s="3">
-        <v>24</v>
-      </c>
-      <c r="I169" s="3">
-        <v>0</v>
-      </c>
-      <c r="J169" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K169" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="170" ht="18" customHeight="1">
-      <c r="A170" s="3">
-        <v>159</v>
-      </c>
-      <c r="B170" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C170" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="D170" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E170" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="F170" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="G170" s="3">
-        <v>15</v>
-      </c>
-      <c r="H170" s="3">
-        <v>15</v>
-      </c>
-      <c r="I170" s="3">
-        <v>0</v>
-      </c>
-      <c r="J170" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K170" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="171" ht="18" customHeight="1">
-      <c r="A171" s="3">
-        <v>160</v>
-      </c>
-      <c r="B171" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="C171" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="D171" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E171" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="F171" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="G171" s="3">
-        <v>18</v>
-      </c>
-      <c r="H171" s="3">
-        <v>18</v>
-      </c>
-      <c r="I171" s="3">
-        <v>0</v>
-      </c>
-      <c r="J171" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K171" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="172" ht="18" customHeight="1">
-      <c r="A172" s="3">
-        <v>161</v>
-      </c>
-      <c r="B172" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C172" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D172" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E172" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F172" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G172" s="3">
-        <v>27</v>
-      </c>
-      <c r="H172" s="3">
-        <v>27</v>
-      </c>
-      <c r="I172" s="3">
-        <v>0</v>
-      </c>
-      <c r="J172" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K172" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="173" ht="18" customHeight="1">
-      <c r="A173" s="3">
-        <v>162</v>
-      </c>
-      <c r="B173" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C173" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="D173" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="E173" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F173" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="G173" s="3">
-        <v>23</v>
-      </c>
-      <c r="H173" s="3">
-        <v>26</v>
-      </c>
-      <c r="I173" s="3">
-        <v>0</v>
-      </c>
-      <c r="J173" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K173" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="174" ht="18" customHeight="1">
-      <c r="A174" s="3">
-        <v>163</v>
-      </c>
-      <c r="B174" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C174" t="s" s="3">
-        <v>138</v>
-      </c>
-      <c r="D174" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E174" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F174" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G174" s="3">
-        <v>25</v>
-      </c>
-      <c r="H174" s="3">
-        <v>25</v>
-      </c>
-      <c r="I174" s="3">
-        <v>0</v>
-      </c>
-      <c r="J174" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K174" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="175" ht="18" customHeight="1">
-      <c r="A175" s="3">
-        <v>164</v>
-      </c>
-      <c r="B175" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C175" t="s" s="3">
-        <v>104</v>
-      </c>
-      <c r="D175" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E175" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F175" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G175" s="3">
-        <v>9</v>
-      </c>
-      <c r="H175" s="3">
-        <v>9</v>
-      </c>
-      <c r="I175" s="3">
-        <v>0</v>
-      </c>
-      <c r="J175" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K175" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="176" ht="18" customHeight="1">
-      <c r="A176" s="3">
-        <v>165</v>
-      </c>
-      <c r="B176" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C176" t="s" s="3">
-        <v>190</v>
-      </c>
-      <c r="D176" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E176" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F176" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G176" s="3">
-        <v>27</v>
-      </c>
-      <c r="H176" s="3">
-        <v>27</v>
-      </c>
-      <c r="I176" s="3">
-        <v>0</v>
-      </c>
-      <c r="J176" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K176" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="177" ht="18" customHeight="1">
-      <c r="A177" s="3">
-        <v>166</v>
-      </c>
-      <c r="B177" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C177" t="s" s="3">
-        <v>140</v>
-      </c>
-      <c r="D177" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E177" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F177" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G177" s="3">
-        <v>27</v>
-      </c>
-      <c r="H177" s="3">
-        <v>27</v>
-      </c>
-      <c r="I177" s="3">
-        <v>0</v>
-      </c>
-      <c r="J177" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K177" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="178" ht="18" customHeight="1">
-      <c r="A178" s="3">
-        <v>167</v>
-      </c>
-      <c r="B178" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C178" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D178" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E178" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F178" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G178" s="3">
-        <v>5</v>
-      </c>
-      <c r="H178" s="3">
-        <v>5</v>
-      </c>
-      <c r="I178" s="3">
-        <v>0</v>
-      </c>
-      <c r="J178" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K178" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="179" ht="18" customHeight="1">
-      <c r="A179" s="3">
-        <v>168</v>
-      </c>
-      <c r="B179" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C179" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D179" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E179" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F179" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G179" s="3">
-        <v>5</v>
-      </c>
-      <c r="H179" s="3">
-        <v>5</v>
-      </c>
-      <c r="I179" s="3">
-        <v>0</v>
-      </c>
-      <c r="J179" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K179" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="180" ht="18" customHeight="1">
-      <c r="A180" s="3">
-        <v>169</v>
-      </c>
-      <c r="B180" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C180" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D180" t="s" s="3">
-        <v>78</v>
-      </c>
-      <c r="E180" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F180" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G180" s="3">
-        <v>10</v>
-      </c>
-      <c r="H180" s="3">
-        <v>10</v>
-      </c>
-      <c r="I180" s="3">
-        <v>0</v>
-      </c>
-      <c r="J180" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K180" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="181" ht="18" customHeight="1">
-      <c r="A181" s="3">
-        <v>170</v>
-      </c>
-      <c r="B181" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C181" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D181" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="E181" t="s" s="3">
-        <v>62</v>
-      </c>
-      <c r="F181" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G181" s="11">
-        <v>12</v>
-      </c>
-      <c r="H181" s="3">
-        <v>12</v>
-      </c>
-      <c r="I181" s="3">
-        <v>0</v>
-      </c>
-      <c r="J181" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K181" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="182" ht="18" customHeight="1">
-      <c r="A182" s="3">
-        <v>171</v>
-      </c>
-      <c r="B182" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C182" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D182" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E182" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F182" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G182" s="11">
-        <v>5.75</v>
-      </c>
-      <c r="H182" s="11">
-        <v>5.75</v>
-      </c>
-      <c r="I182" s="3">
-        <v>0</v>
-      </c>
-      <c r="J182" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K182" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="183" ht="18" customHeight="1">
-      <c r="A183" s="3">
-        <v>172</v>
-      </c>
-      <c r="B183" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C183" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D183" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E183" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="F183" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G183" s="3">
-        <v>9</v>
-      </c>
-      <c r="H183" s="3">
-        <v>9</v>
-      </c>
-      <c r="I183" s="3">
-        <v>0</v>
-      </c>
-      <c r="J183" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K183" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="184" ht="18" customHeight="1">
-      <c r="A184" s="3">
-        <v>173</v>
-      </c>
-      <c r="B184" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C184" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D184" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="E184" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F184" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="G184" s="3">
-        <v>19</v>
-      </c>
-      <c r="H184" s="3">
-        <v>24</v>
-      </c>
-      <c r="I184" s="3">
-        <v>0</v>
-      </c>
-      <c r="J184" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K184" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="185" ht="18" customHeight="1">
-      <c r="A185" s="3">
-        <v>174</v>
-      </c>
-      <c r="B185" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C185" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D185" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E185" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="F185" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="G185" s="3">
-        <v>15</v>
-      </c>
-      <c r="H185" s="3">
-        <v>15</v>
-      </c>
-      <c r="I185" s="3">
-        <v>0</v>
-      </c>
-      <c r="J185" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K185" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="186" ht="18" customHeight="1">
-      <c r="A186" s="3">
-        <v>175</v>
-      </c>
-      <c r="B186" t="s" s="3">
-        <v>97</v>
-      </c>
-      <c r="C186" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D186" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="E186" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="F186" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="G186" s="3">
-        <v>18</v>
-      </c>
-      <c r="H186" s="3">
-        <v>18</v>
-      </c>
-      <c r="I186" s="3">
-        <v>0</v>
-      </c>
-      <c r="J186" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K186" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="187" ht="18" customHeight="1">
-      <c r="A187" s="3">
-        <v>176</v>
-      </c>
-      <c r="B187" t="s" s="3">
-        <v>175</v>
-      </c>
-      <c r="C187" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D187" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E187" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F187" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G187" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="H187" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="I187" s="3">
-        <v>0</v>
-      </c>
-      <c r="J187" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K187" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="188" ht="18" customHeight="1">
-      <c r="A188" s="3">
-        <v>177</v>
-      </c>
-      <c r="B188" t="s" s="3">
-        <v>176</v>
-      </c>
-      <c r="C188" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D188" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E188" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F188" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G188" s="3">
-        <v>10</v>
-      </c>
-      <c r="H188" s="3">
-        <v>10</v>
-      </c>
-      <c r="I188" s="3">
-        <v>0</v>
-      </c>
-      <c r="J188" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K188" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="189" ht="18" customHeight="1">
-      <c r="A189" s="3">
-        <v>178</v>
-      </c>
-      <c r="B189" t="s" s="3">
-        <v>177</v>
-      </c>
-      <c r="C189" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D189" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="E189" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F189" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="G189" s="11">
-        <v>10</v>
-      </c>
-      <c r="H189" s="11">
-        <v>10</v>
-      </c>
-      <c r="I189" s="3">
-        <v>0</v>
-      </c>
-      <c r="J189" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K189" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="190" ht="18" customHeight="1">
-      <c r="A190" s="2">
-        <v>179</v>
-      </c>
-      <c r="B190" t="s" s="3">
-        <v>141</v>
-      </c>
-      <c r="C190" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D190" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E190" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F190" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="G190" s="3">
-        <v>10</v>
-      </c>
-      <c r="H190" s="3">
-        <v>10</v>
-      </c>
-      <c r="I190" s="3">
-        <v>0</v>
-      </c>
-      <c r="J190" t="s" s="3">
-        <v>656</v>
-      </c>
-      <c r="K190" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="191" ht="18" customHeight="1">
-      <c r="A191" s="62"/>
-      <c r="B191" t="s" s="7">
-        <v>141</v>
-      </c>
-      <c r="C191" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="D191" t="s" s="3">
-        <v>50</v>
-      </c>
-      <c r="E191" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="F191" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="G191" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="H191" s="3">
-        <v>6.25</v>
-      </c>
-      <c r="I191" s="3">
-        <v>0</v>
-      </c>
-      <c r="J191" t="s" s="3">
-        <v>657</v>
-      </c>
-      <c r="K191" s="56">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="192" ht="17.5" customHeight="1">
-      <c r="A192" s="62"/>
-      <c r="B192" t="s" s="36">
-        <v>141</v>
-      </c>
-      <c r="C192" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D192" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="E192" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="F192" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="G192" s="2">
-        <v>5</v>
-      </c>
-      <c r="H192" s="2">
-        <v>5</v>
-      </c>
-      <c r="I192" s="2">
-        <v>0</v>
-      </c>
-      <c r="J192" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="K192" s="57">
-        <v>41864</v>
-      </c>
-    </row>
-    <row r="193" ht="17" customHeight="1">
-      <c r="A193" s="62"/>
-      <c r="B193" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="C193" t="s" s="15">
-        <v>71</v>
-      </c>
-      <c r="D193" t="s" s="15">
-        <v>164</v>
-      </c>
-      <c r="E193" t="s" s="15">
-        <v>31</v>
-      </c>
-      <c r="F193" s="15">
-        <v>6.5</v>
-      </c>
-      <c r="G193" s="15">
-        <v>8</v>
-      </c>
-      <c r="H193" s="15">
-        <v>10</v>
-      </c>
-      <c r="I193" s="15">
-        <v>0</v>
-      </c>
-      <c r="J193" t="s" s="15">
-        <v>657</v>
-      </c>
-      <c r="K193" s="58">
-        <v>41925</v>
-      </c>
-    </row>
-    <row r="194" ht="17" customHeight="1">
-      <c r="A194" s="62"/>
-      <c r="B194" t="s" s="15">
-        <v>71</v>
-      </c>
-      <c r="C194" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="D194" t="s" s="15">
-        <v>164</v>
-      </c>
-      <c r="E194" t="s" s="15">
-        <v>31</v>
-      </c>
-      <c r="F194" s="15">
-        <v>6.5</v>
-      </c>
-      <c r="G194" s="15">
-        <v>8</v>
-      </c>
-      <c r="H194" s="15">
-        <v>10</v>
-      </c>
-      <c r="I194" s="15">
-        <v>0</v>
-      </c>
-      <c r="J194" t="s" s="15">
-        <v>657</v>
-      </c>
-      <c r="K194" s="58">
-        <v>41925</v>
-      </c>
-    </row>
-    <row r="195" ht="17.5" customHeight="1">
-      <c r="A195" s="63"/>
-      <c r="B195" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="C195" t="s" s="15">
-        <v>19</v>
-      </c>
-      <c r="D195" t="s" s="15">
-        <v>61</v>
-      </c>
-      <c r="E195" t="s" s="15">
-        <v>62</v>
-      </c>
-      <c r="F195" s="15">
-        <v>12</v>
-      </c>
-      <c r="G195" s="15">
-        <v>25</v>
-      </c>
-      <c r="H195" s="15">
-        <v>25</v>
-      </c>
-      <c r="I195" s="16"/>
-      <c r="J195" t="s" s="15">
-        <v>656</v>
-      </c>
-      <c r="K195" s="58">
-        <v>41926</v>
-      </c>
-    </row>
-    <row r="196" ht="18" customHeight="1">
-      <c r="A196" s="26"/>
-      <c r="B196" t="s" s="64">
-        <v>20</v>
-      </c>
-      <c r="C196" t="s" s="64">
-        <v>19</v>
-      </c>
-      <c r="D196" t="s" s="64">
-        <v>61</v>
-      </c>
-      <c r="E196" t="s" s="64">
-        <v>113</v>
-      </c>
-      <c r="F196" s="64">
-        <v>9</v>
-      </c>
-      <c r="G196" s="64">
-        <v>35</v>
-      </c>
-      <c r="H196" s="64">
-        <v>35</v>
-      </c>
-      <c r="I196" s="65"/>
-      <c r="J196" t="s" s="64">
-        <v>656</v>
-      </c>
-      <c r="K196" s="66">
-        <v>41926</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Apple SD 산돌고딕 Neo 일반체,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="16.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="6.625" style="67" customWidth="1"/>
-    <col min="2" max="2" width="16.875" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="67" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="67" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="67" customWidth="1"/>
-    <col min="6" max="256" width="6.625" style="67" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" t="s" s="3">
-        <v>660</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="3">
-        <v>668</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" t="s" s="3">
-        <v>661</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="3">
-        <v>20040</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" t="s" s="3">
-        <v>662</v>
-      </c>
-      <c r="C6" t="s" s="3">
-        <v>663</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="3">
-        <v>547</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5470</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" t="s" s="3">
-        <v>664</v>
-      </c>
-      <c r="C8" t="s" s="3">
-        <v>665</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="3">
-        <v>16410</v>
-      </c>
-      <c r="C9" s="3">
-        <v>164100</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" t="s" s="3">
-        <v>666</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="3">
-        <f>28*6</f>
-        <v>168</v>
-      </c>
-      <c r="C11" t="s" s="3">
-        <v>667</v>
-      </c>
-      <c r="D11" s="3">
-        <f>168*10</f>
-        <v>1680</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="3">
-        <f>168*30</f>
-        <v>5040</v>
-      </c>
-      <c r="C12" t="s" s="3">
-        <v>668</v>
-      </c>
-      <c r="D12" s="3">
-        <f>5040*10</f>
-        <v>50400</v>
-      </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" t="s" s="3">
-        <v>669</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="3">
-        <v>7421</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" t="s" s="3">
-        <v>670</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="3">
-        <v>222630</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Apple SD 산돌고딕 Neo 일반체,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>